--- a/biology/Zoologie/Cydia_amplana/Cydia_amplana.xlsx
+++ b/biology/Zoologie/Cydia_amplana/Cydia_amplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cydia amplana, le Carpocapse des glands, est une espèce de papillons de nuit de la famille des Tortricidae et du genre Cydia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cydia amplana, le Carpocapse des glands, est une espèce de papillons de nuit de la famille des Tortricidae et du genre Cydia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une envergure de 16-20 mm, il présente une grande tache claire et des tirets foncés près de la marge de l'aile antérieure. Il ressemble à plusieurs espèces de Tortricidae.
 </t>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cydia amplana a été décrite pour la première fois en 1799[3] par l'entomologiste allemand Jakob Hübner (1771-1826) sous le protonyme Tortrix amplana[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cydia amplana a été décrite pour la première fois en 1799 par l'entomologiste allemand Jakob Hübner (1771-1826) sous le protonyme Tortrix amplana.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon se rencontre en Europe et en Asie Mineure, il est présent dans toute la France[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se rencontre en Europe et en Asie Mineure, il est présent dans toute la France
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille s'alimente dans les fruits mûrs tombés au sol (et parfois sur les fruits encore sur l'arbre) de diverses espèces de feuillus comme le Noisetier, le Noyer, le Châtaignier, le Hêtre et les chênes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille s'alimente dans les fruits mûrs tombés au sol (et parfois sur les fruits encore sur l'arbre) de diverses espèces de feuillus comme le Noisetier, le Noyer, le Châtaignier, le Hêtre et les chênes.
 </t>
         </is>
       </c>
